--- a/public/LoanRelease.xlsx
+++ b/public/LoanRelease.xlsx
@@ -20,7 +20,7 @@
     <t>Jan</t>
   </si>
   <si>
-    <t xml:space="preserve">ORO INTEGRATED COOPERATIVE - BALINGASAG BRANCH </t>
+    <t xml:space="preserve">ORO INTEGRATED COOPERATIVE - TORIL BRANCH </t>
   </si>
   <si>
     <t>FOR THE MONTH OF JANUARY TO APRIL 2023 - LOAN RELEASES PER PRODUCT</t>

--- a/public/LoanRelease.xlsx
+++ b/public/LoanRelease.xlsx
@@ -15,26 +15,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>Jan</t>
   </si>
   <si>
-    <t xml:space="preserve">ORO INTEGRATED COOPERATIVE - TORIL BRANCH </t>
-  </si>
-  <si>
-    <t>FOR THE MONTH OF JANUARY TO APRIL 2023 - LOAN RELEASES PER PRODUCT</t>
+    <t xml:space="preserve">ORO INTEGRATED COOPERATIVE - BALINGASAG BRANCH </t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF JANUARY TO FEBRUARY 2023 - LOAN RELEASES PER PRODUCT</t>
   </si>
   <si>
     <t>Feb</t>
   </si>
   <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -116,7 +110,7 @@
     <t>Prepared By:</t>
   </si>
   <si>
-    <t>REY RAFAEL HERNANE COSTEMIANO</t>
+    <t>Herbert P. Aratan</t>
   </si>
   <si>
     <t>450,000.00</t>
@@ -155,37 +149,40 @@
     <t>1,493,700.00</t>
   </si>
   <si>
-    <t>104,000.00</t>
-  </si>
-  <si>
-    <t>1,800,000.00</t>
-  </si>
-  <si>
-    <t>280,000.00</t>
-  </si>
-  <si>
-    <t>320,000.00</t>
-  </si>
-  <si>
-    <t>2,800,000.00</t>
-  </si>
-  <si>
-    <t>5,200,000.00</t>
-  </si>
-  <si>
-    <t>70,800.00</t>
-  </si>
-  <si>
-    <t>670,800.00</t>
-  </si>
-  <si>
-    <t>2,400,000.00</t>
-  </si>
-  <si>
-    <t>454,800.00</t>
-  </si>
-  <si>
-    <t>5,974,800.00</t>
+    <t>52,000.00</t>
+  </si>
+  <si>
+    <t>900,000.00</t>
+  </si>
+  <si>
+    <t>140,000.00</t>
+  </si>
+  <si>
+    <t>160,000.00</t>
+  </si>
+  <si>
+    <t>1,400,000.00</t>
+  </si>
+  <si>
+    <t>2,600,000.00</t>
+  </si>
+  <si>
+    <t>300,000.00</t>
+  </si>
+  <si>
+    <t>35,400.00</t>
+  </si>
+  <si>
+    <t>335,400.00</t>
+  </si>
+  <si>
+    <t>1,200,000.00</t>
+  </si>
+  <si>
+    <t>227,400.00</t>
+  </si>
+  <si>
+    <t>2,987,400.00</t>
   </si>
 </sst>
 </file>
@@ -564,10 +561,10 @@
     <col min="6" max="6" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
     <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
     <col min="14" max="14" width="9.10" bestFit="true" style="0"/>
     <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
@@ -609,12 +606,8 @@
       <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="I4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="M4" s="2"/>
       <c r="O4" s="2"/>
       <c r="Q4" s="2"/>
@@ -626,41 +619,33 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -680,10 +665,10 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -701,24 +686,12 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
         <v>0.0</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -736,24 +709,12 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
         <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -771,25 +732,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
         <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -807,27 +756,15 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
         <v>0.0</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -845,133 +782,85 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
         <v>0.0</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13">
-        <v>16</v>
-      </c>
-      <c r="L13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -989,24 +878,12 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
         <v>0.0</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1024,24 +901,12 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
         <v>0.0</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1059,25 +924,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
         <v>0.0</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1095,27 +948,15 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
         <v>0.0</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1133,24 +974,12 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
         <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:28">
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1168,24 +997,12 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
         <v>0.0</v>
       </c>
     </row>
     <row r="20" spans="1:28">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1203,25 +1020,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
         <v>0.0</v>
       </c>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1239,27 +1044,15 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
         <v>0.0</v>
       </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1277,24 +1070,12 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0.0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
         <v>0.0</v>
       </c>
     </row>
     <row r="23" spans="1:28">
       <c r="B23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1312,24 +1093,12 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
         <v>0.0</v>
       </c>
     </row>
     <row r="24" spans="1:28">
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1347,25 +1116,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0.0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
         <v>0.0</v>
       </c>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1383,27 +1140,15 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0.0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
         <v>0.0</v>
       </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1421,24 +1166,12 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0.0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
         <v>0.0</v>
       </c>
     </row>
     <row r="27" spans="1:28">
       <c r="B27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1456,24 +1189,12 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0.0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
         <v>0.0</v>
       </c>
     </row>
     <row r="28" spans="1:28">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1491,25 +1212,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0.0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
         <v>0.0</v>
       </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1527,171 +1236,111 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0.0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
         <v>0.0</v>
       </c>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30">
-        <v>8</v>
-      </c>
-      <c r="L30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:28">
       <c r="B31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31">
-        <v>8</v>
-      </c>
-      <c r="J31" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31">
-        <v>32</v>
-      </c>
-      <c r="L31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:28">
       <c r="B32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32">
-        <v>8</v>
-      </c>
-      <c r="L32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G33">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33">
-        <v>12</v>
-      </c>
-      <c r="J33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33">
-        <v>48</v>
-      </c>
-      <c r="L33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1709,24 +1358,12 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0.0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
         <v>0.0</v>
       </c>
     </row>
     <row r="35" spans="1:28">
       <c r="B35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1744,24 +1381,12 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0.0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
         <v>0.0</v>
       </c>
     </row>
     <row r="36" spans="1:28">
       <c r="B36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1779,25 +1404,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0.0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
         <v>0.0</v>
       </c>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1815,27 +1428,15 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0.0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
         <v>0.0</v>
       </c>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1853,24 +1454,12 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0.0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
         <v>0.0</v>
       </c>
     </row>
     <row r="39" spans="1:28">
       <c r="B39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1888,24 +1477,12 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0.0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
         <v>0.0</v>
       </c>
     </row>
     <row r="40" spans="1:28">
       <c r="B40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1923,25 +1500,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0.0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
         <v>0.0</v>
       </c>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1959,27 +1524,15 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0.0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
         <v>0.0</v>
       </c>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1997,24 +1550,12 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0.0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
         <v>0.0</v>
       </c>
     </row>
     <row r="43" spans="1:28">
       <c r="B43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2032,24 +1573,12 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0.0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
         <v>0.0</v>
       </c>
     </row>
     <row r="44" spans="1:28">
       <c r="B44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2067,25 +1596,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0.0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
         <v>0.0</v>
       </c>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2103,27 +1620,15 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0.0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
         <v>0.0</v>
       </c>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2141,24 +1646,12 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0.0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
         <v>0.0</v>
       </c>
     </row>
     <row r="47" spans="1:28">
       <c r="B47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2176,24 +1669,12 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0.0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
         <v>0.0</v>
       </c>
     </row>
     <row r="48" spans="1:28">
       <c r="B48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2211,25 +1692,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0.0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
         <v>0.0</v>
       </c>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2247,27 +1716,15 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0.0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
         <v>0.0</v>
       </c>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2285,24 +1742,12 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0.0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0.0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
         <v>0.0</v>
       </c>
     </row>
     <row r="51" spans="1:28">
       <c r="B51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2320,24 +1765,12 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0.0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0.0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
         <v>0.0</v>
       </c>
     </row>
     <row r="52" spans="1:28">
       <c r="B52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2355,25 +1788,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0.0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
         <v>0.0</v>
       </c>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2391,27 +1812,15 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0.0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0.0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
         <v>0.0</v>
       </c>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2429,24 +1838,12 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0.0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
         <v>0.0</v>
       </c>
     </row>
     <row r="55" spans="1:28">
       <c r="B55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2464,24 +1861,12 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0.0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
         <v>0.0</v>
       </c>
     </row>
     <row r="56" spans="1:28">
       <c r="B56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2499,25 +1884,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0.0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
         <v>0.0</v>
       </c>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2535,27 +1908,15 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0.0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0.0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
         <v>0.0</v>
       </c>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2573,59 +1934,35 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0.0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0.0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
         <v>0.0</v>
       </c>
     </row>
     <row r="59" spans="1:28">
       <c r="B59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>41</v>
-      </c>
-      <c r="K59">
-        <v>4</v>
-      </c>
-      <c r="L59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:28">
       <c r="B60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2643,63 +1980,39 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0.0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0.0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
         <v>0.0</v>
       </c>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>41</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>41</v>
-      </c>
-      <c r="K61">
-        <v>4</v>
-      </c>
-      <c r="L61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2717,24 +2030,12 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0.0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0.0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
         <v>0.0</v>
       </c>
     </row>
     <row r="63" spans="1:28">
       <c r="B63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2752,24 +2053,12 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0.0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0.0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
         <v>0.0</v>
       </c>
     </row>
     <row r="64" spans="1:28">
       <c r="B64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2787,25 +2076,13 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0.0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0.0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
         <v>0.0</v>
       </c>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2823,27 +2100,15 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0.0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0.0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
         <v>0.0</v>
       </c>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2861,59 +2126,35 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0.0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0.0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
         <v>0.0</v>
       </c>
     </row>
     <row r="67" spans="1:28">
       <c r="B67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C67">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E67">
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>42</v>
-      </c>
-      <c r="I67">
-        <v>4</v>
-      </c>
-      <c r="J67" t="s">
-        <v>42</v>
-      </c>
-      <c r="K67">
-        <v>16</v>
-      </c>
-      <c r="L67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:28">
       <c r="B68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2931,63 +2172,39 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0.0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0.0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
         <v>0.0</v>
       </c>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C69">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E69">
         <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H69" t="s">
-        <v>42</v>
-      </c>
-      <c r="I69">
-        <v>4</v>
-      </c>
-      <c r="J69" t="s">
-        <v>42</v>
-      </c>
-      <c r="K69">
-        <v>16</v>
-      </c>
-      <c r="L69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3005,24 +2222,12 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0.0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
         <v>0.0</v>
       </c>
     </row>
     <row r="71" spans="1:28">
       <c r="B71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3040,24 +2245,12 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0.0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0.0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
         <v>0.0</v>
       </c>
     </row>
     <row r="72" spans="1:28">
       <c r="B72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3075,25 +2268,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0.0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0.0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
         <v>0.0</v>
       </c>
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3111,172 +2292,112 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0.0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0.0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
         <v>0.0</v>
       </c>
     </row>
     <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>37</v>
-      </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74" t="s">
-        <v>37</v>
-      </c>
-      <c r="K74">
-        <v>8</v>
-      </c>
-      <c r="L74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:28">
       <c r="B75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C75">
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E75">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G75">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>43</v>
-      </c>
-      <c r="I75">
-        <v>16</v>
-      </c>
-      <c r="J75" t="s">
-        <v>43</v>
-      </c>
-      <c r="K75">
-        <v>64</v>
-      </c>
-      <c r="L75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:28">
       <c r="B76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E76">
         <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K76">
-        <v>12</v>
-      </c>
-      <c r="L76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:28">
       <c r="B77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77">
         <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E77">
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G77">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H77" t="s">
-        <v>45</v>
-      </c>
-      <c r="I77">
-        <v>21</v>
-      </c>
-      <c r="J77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K77">
-        <v>84</v>
-      </c>
-      <c r="L77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:28">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:28">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
